--- a/MVC.xlsx
+++ b/MVC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>EF后台修改数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,12 +506,27 @@
   <si>
     <t>Jquery序列化的问题？</t>
   </si>
+  <si>
+    <t>tagName：获取HTML的标签名</t>
+  </si>
+  <si>
+    <t>var $labels = $searchform.find('label').not('.radio-inline').not('.checkbox-inline').not('.error');</t>
+  </si>
+  <si>
+    <t>//获取合适的html</t>
+  </si>
+  <si>
+    <t>这句话如果绑定的data没有数据会出现黑色线条，后面就去不掉了</t>
+  </si>
+  <si>
+    <t>这样做配置后就不会出错了</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +654,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -662,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +733,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1246,6 +1277,147 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8001000"/>
+          <a:ext cx="3543300" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3562350" y="8477250"/>
+          <a:ext cx="8753475" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="3867150" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4389,6 +4561,288 @@
         <a:xfrm>
           <a:off x="7477125" y="6105525"/>
           <a:ext cx="5619750" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9791700"/>
+          <a:ext cx="1104900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10010775"/>
+          <a:ext cx="5715000" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8991600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11601450"/>
+          <a:ext cx="8991600" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9534525"/>
+          <a:ext cx="1828800" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11125200"/>
+          <a:ext cx="1857375" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7858125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="7858125" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4967,10 +5421,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5003,6 +5457,16 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5016,10 +5480,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5076,6 +5540,21 @@
     <row r="12" spans="1:1">
       <c r="A12" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5089,8 +5568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MVC.xlsx
+++ b/MVC.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F294A5-82F6-4F48-AF29-E632A4F4FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="HTML辅助方法" sheetId="2" r:id="rId2"/>
-    <sheet name="Sql" sheetId="3" r:id="rId3"/>
-    <sheet name="CTU业务流程" sheetId="4" r:id="rId4"/>
-    <sheet name="DataTables设定" sheetId="5" r:id="rId5"/>
+    <sheet name="MVC传值" sheetId="8" r:id="rId2"/>
+    <sheet name="HTML辅助方法" sheetId="2" r:id="rId3"/>
+    <sheet name="Sql" sheetId="3" r:id="rId4"/>
+    <sheet name="CTU业务流程" sheetId="4" r:id="rId5"/>
     <sheet name="Jquery" sheetId="6" r:id="rId6"/>
-    <sheet name="Jquery方法" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>EF后台修改数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,108 +63,6 @@
   </si>
   <si>
     <t>下图就是导入的当天是周五，所以excel里面周一和周四的数据都不会导入进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$(document).ready(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>() {</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'#example'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>).DataTable( {</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>} );</t>
-    </r>
-  </si>
-  <si>
-    <t>} );</t>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>fixedHeader: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixedHeader: true //在下拉框往下滚动的时候表头会始终显示，如下图表头会始终固定在画面上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,6 +140,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>输出字符串</t>
     </r>
@@ -267,6 +166,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>amp;</t>
     </r>
@@ -275,6 +175,7 @@
         <sz val="11"/>
         <color rgb="FF323E32"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>Version=2'</t>
     </r>
@@ -474,39 +375,9 @@
     <t>//三种方式都可以、看你自己喜欢、个人一般用jQuery自带的那个方法、不过要1.5版本以后的、老版本没有、</t>
   </si>
   <si>
-    <t>$('#js_FL_datatable tbody').html() （获取的html如下）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        &lt;tr role="row" class="odd"&gt;
-            &lt;td class=" text-center js-grid-import"&gt;
-                &lt;button type="button" class="btn btn-default btn-xs" rel="action-popover" data-original-title="" title=""&gt;
-                    &lt;i class="fa fa-reorder text-info"&gt;&lt;/i&gt;
-                &lt;/button&gt;
-                &lt;div class="hidden popover-content"&gt;
-                    &lt;a href="FlowchartMEDetailList/38?Product_Phase=MP&amp;amp;Version=1"&gt;&lt;button type="button" class="btn btn-default btn-sm js-grid-info" data-id="38"&gt;查看ME制程详情&lt;/button&gt;&lt;/a&gt;
-                    &lt;br&gt;
-                    &lt;a href="FlowchartMEquipmentList/38?Product_Phase=MP&amp;amp;Version=1"&gt;&lt;button type="button" class="btn btn-default btn-sm js-grid-info" data-id="38"&gt;查看设备明细&lt;/button&gt;&lt;/a&gt;
-                    &lt;br&gt;
-                    &lt;button type="button" class="btn btn-default btn-sm js-grid-update" data-id="38"&gt;ME导入更新&lt;/button&gt;
-                    &lt;br&gt;
-                &lt;/div&gt;
-            &lt;/td&gt;
-            &lt;td class=" table-col-seq"&gt;1&lt;/td&gt;
-            &lt;td class=" min-col-xs"&gt;Apple&lt;/td&gt;
-        &lt;/tr&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            $('#js_FL_datatable tbody').on('click', '.js-grid-update', function () {
-                var aa = 5;
-            });</t>
-  </si>
-  <si>
     <t>MVC从webapi反序列化到web层的问题？</t>
   </si>
   <si>
-    <t>Jquery序列化的问题？</t>
-  </si>
-  <si>
     <t>tagName：获取HTML的标签名</t>
   </si>
   <si>
@@ -516,56 +387,45 @@
     <t>//获取合适的html</t>
   </si>
   <si>
-    <t>这句话如果绑定的data没有数据会出现黑色线条，后面就去不掉了</t>
-  </si>
-  <si>
-    <t>这样做配置后就不会出错了</t>
+    <t>Controller层到View层传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller层传值到View层然后通过Jquery调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传值到View层建议model都转为Json后再传，Jquery接收不到其他复杂模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jquery接收到值后再通过post方式把复杂模型传递到后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006699"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -584,11 +444,13 @@
       <sz val="11"/>
       <color rgb="FF323E32"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -687,64 +549,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -754,327 +612,218 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F6324F-8B8D-4A79-8846-845EA2248105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="586740"/>
+          <a:ext cx="9258300" cy="2871245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>202837</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DCAC33-B2AA-4C99-803E-19247343BDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7551420" y="4152900"/>
+          <a:ext cx="5453017" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8010525" cy="5924550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8010525" cy="5924550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>577905</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386D10DB-A95C-4B36-ADE7-3D93C97A5BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4061460"/>
+          <a:ext cx="7283505" cy="4008120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561059</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397E263A-C025-4155-BAC2-FAF965549A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="8961120"/>
+          <a:ext cx="4218658" cy="1691640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6172200"/>
-          <a:ext cx="5524500" cy="5343525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="11830050"/>
-          <a:ext cx="7181850" cy="5676900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="17830800"/>
-          <a:ext cx="9715500" cy="4848225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172803</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BCFFAB-0234-4306-9D69-E37E267BFB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="25622250"/>
-          <a:ext cx="9144000" cy="5067300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27774900"/>
-          <a:ext cx="10201275" cy="4438650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5135880" y="9014461"/>
+          <a:ext cx="4790523" cy="1211580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1088,18 +837,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1113,102 +868,326 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="15144750" cy="4238625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8010525" cy="5924550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8010525" cy="5924550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6172200"/>
+          <a:ext cx="5524500" cy="5343525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11830050"/>
+          <a:ext cx="7181850" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17830800"/>
+          <a:ext cx="9715500" cy="4848225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25622250"/>
+          <a:ext cx="9144000" cy="5067300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4800600"/>
-          <a:ext cx="15240000" cy="5295900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="10972800"/>
-          <a:ext cx="14935200" cy="4314825"/>
+        <xdr:cNvPr id="2055" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27774900"/>
+          <a:ext cx="10201275" cy="4438650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,18 +1213,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1259,40 +1244,46 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1466850"/>
-          <a:ext cx="5438775" cy="5114925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="15144750" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1306,40 +1297,46 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="8001000"/>
-          <a:ext cx="3543300" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+          <a:off x="0" y="4800600"/>
+          <a:ext cx="15240000" cy="5295900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1353,55 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3562350" y="8477250"/>
-          <a:ext cx="8753475" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="10477500"/>
-          <a:ext cx="3867150" cy="2324100"/>
+          <a:off x="0" y="10972800"/>
+          <a:ext cx="14935200" cy="4314825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,7 +1388,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1485,7 +1441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1532,7 +1494,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1579,7 +1547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1626,7 +1600,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1673,7 +1653,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPr id="1028" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1720,7 +1706,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1767,7 +1759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPr id="1030" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1814,7 +1812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPr id="1031" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1861,7 +1865,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPr id="1032" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1908,7 +1918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPr id="1033" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1955,7 +1971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2002,7 +2024,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPr id="1035" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2049,7 +2077,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPr id="1036" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2096,7 +2130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPr id="1037" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2143,7 +2183,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPr id="1038" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2190,7 +2236,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPr id="1039" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2237,7 +2289,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPr id="1040" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2284,7 +2342,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPr id="1041" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2331,7 +2395,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPr id="1042" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2378,7 +2448,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1043" name="Picture 19"/>
+        <xdr:cNvPr id="1043" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2425,7 +2501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPr id="1044" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2472,7 +2554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPr id="1045" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2519,7 +2607,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1046" name="Picture 22"/>
+        <xdr:cNvPr id="1046" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2566,7 +2660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1047" name="Picture 23"/>
+        <xdr:cNvPr id="1047" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2613,7 +2713,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1048" name="Picture 24"/>
+        <xdr:cNvPr id="1048" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2660,7 +2766,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1049" name="Picture 25"/>
+        <xdr:cNvPr id="1049" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2707,7 +2819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1050" name="Picture 26"/>
+        <xdr:cNvPr id="1050" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2754,7 +2872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="Picture 27"/>
+        <xdr:cNvPr id="1051" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2801,7 +2925,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1053" name="Picture 29"/>
+        <xdr:cNvPr id="1053" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2848,7 +2978,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1054" name="Picture 30"/>
+        <xdr:cNvPr id="1054" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2895,7 +3031,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1055" name="Picture 31"/>
+        <xdr:cNvPr id="1055" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2942,7 +3084,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1056" name="Picture 32"/>
+        <xdr:cNvPr id="1056" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2989,7 +3137,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1057" name="Picture 33"/>
+        <xdr:cNvPr id="1057" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3036,7 +3190,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1058" name="Picture 34"/>
+        <xdr:cNvPr id="1058" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3083,7 +3243,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1059" name="Picture 35"/>
+        <xdr:cNvPr id="1059" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3130,7 +3296,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1060" name="Picture 36"/>
+        <xdr:cNvPr id="1060" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3177,7 +3349,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1061" name="Picture 37"/>
+        <xdr:cNvPr id="1061" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3224,7 +3402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1062" name="Picture 38"/>
+        <xdr:cNvPr id="1062" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3271,7 +3455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1063" name="Picture 39"/>
+        <xdr:cNvPr id="1063" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3318,7 +3508,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1064" name="Picture 40"/>
+        <xdr:cNvPr id="1064" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3365,7 +3561,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1065" name="Picture 41"/>
+        <xdr:cNvPr id="1065" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3412,7 +3614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1066" name="Picture 42"/>
+        <xdr:cNvPr id="1066" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3459,7 +3667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1067" name="Picture 43"/>
+        <xdr:cNvPr id="1067" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3506,7 +3720,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1068" name="Picture 44"/>
+        <xdr:cNvPr id="1068" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3553,7 +3773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1069" name="Picture 45"/>
+        <xdr:cNvPr id="1069" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3600,7 +3826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1070" name="Picture 46"/>
+        <xdr:cNvPr id="1070" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3647,7 +3879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1071" name="Picture 47"/>
+        <xdr:cNvPr id="1071" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3694,7 +3932,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1072" name="Picture 48"/>
+        <xdr:cNvPr id="1072" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3741,7 +3985,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1073" name="Picture 49"/>
+        <xdr:cNvPr id="1073" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3788,7 +4038,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1074" name="Picture 50"/>
+        <xdr:cNvPr id="1074" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3835,7 +4091,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1075" name="Picture 51"/>
+        <xdr:cNvPr id="1075" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3882,7 +4144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1076" name="Picture 52"/>
+        <xdr:cNvPr id="1076" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3929,7 +4197,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1077" name="Picture 53"/>
+        <xdr:cNvPr id="1077" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3976,7 +4250,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 54"/>
+        <xdr:cNvPr id="1078" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4023,7 +4303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1079" name="Picture 55"/>
+        <xdr:cNvPr id="1079" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4070,7 +4356,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1080" name="Picture 56"/>
+        <xdr:cNvPr id="1080" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4117,7 +4409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1081" name="Picture 57"/>
+        <xdr:cNvPr id="1081" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4164,7 +4462,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1082" name="Picture 58"/>
+        <xdr:cNvPr id="1082" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4180,669 +4484,6 @@
         <a:xfrm>
           <a:off x="0" y="188718825"/>
           <a:ext cx="4095750" cy="4857750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8153400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8153400" y="57150"/>
-          <a:ext cx="11687175" cy="5086350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4572000"/>
-          <a:ext cx="3790950" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4400550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5143500"/>
-          <a:ext cx="4400550" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4410075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6286500"/>
-          <a:ext cx="4410075" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3371850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6991350"/>
-          <a:ext cx="3371850" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7429500"/>
-          <a:ext cx="3429000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4705350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7315200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4705350" y="6029325"/>
-          <a:ext cx="2609850" cy="2343150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7477125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7477125" y="6105525"/>
-          <a:ext cx="5619750" cy="1666875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9791700"/>
-          <a:ext cx="1104900" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5715000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="10010775"/>
-          <a:ext cx="5715000" cy="1095375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8991600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="11601450"/>
-          <a:ext cx="8991600" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9534525"/>
-          <a:ext cx="1828800" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="11125200"/>
-          <a:ext cx="1857375" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7858125</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="12001500"/>
-          <a:ext cx="7858125" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4863,7 +4504,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4905,7 +4546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4937,9 +4578,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4971,6 +4630,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5146,15 +4823,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -5192,48 +4869,48 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5244,7 +4921,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D38279-0C00-4DE8-B32D-086B79AD11B0}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="Q136:Q147"/>
   <sheetViews>
@@ -5252,61 +4972,61 @@
       <selection activeCell="Q147" sqref="Q147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="136" spans="17:17">
       <c r="Q136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="17:17">
+      <c r="Q138" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="17:17">
+      <c r="Q140" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="17:17">
+      <c r="Q141" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="17:17">
+      <c r="Q142" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="17:17">
+      <c r="Q143" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="17:17">
-      <c r="Q138" s="3" t="s">
+    <row r="144" spans="17:17">
+      <c r="Q144" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="17:17">
-      <c r="Q139" s="4" t="s">
+    <row r="145" spans="17:17">
+      <c r="Q145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="17:17">
+      <c r="Q146" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="17:17">
-      <c r="Q140" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="17:17">
-      <c r="Q141" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="17:17">
-      <c r="Q142" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="17:17">
-      <c r="Q143" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="17:17">
-      <c r="Q144" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="17:17">
-      <c r="Q145" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" spans="17:17">
-      <c r="Q146" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="147" spans="17:17">
       <c r="Q147" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5317,8 +5037,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -5326,51 +5046,51 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
+      <c r="A1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
+      <c r="A2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>38</v>
+      <c r="A5" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5380,8 +5100,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -5389,7 +5109,7 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -5414,71 +5134,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:A69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A1021"/>
   <sheetViews>
@@ -5486,119 +5148,81 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1" ht="24.6">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+    <row r="1019" spans="1:1">
+      <c r="A1019" s="11" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1">
-      <c r="A1019" s="15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
-      <c r="A1021" s="16" t="s">
-        <v>59</v>
+      <c r="A1021" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="183" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="270" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="45">
-      <c r="A4" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>